--- a/img/System layers.xlsx
+++ b/img/System layers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin_g\Documents\_PRIVATE\Arduino\EnigmaIOT\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmartin\Documents\Arduino\libraries\EnigmaIOT\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5949BE-90A4-46F0-AB56-C1B04290624C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13860" windowHeight="5475"/>
+    <workbookView xWindow="7410" yWindow="1020" windowWidth="30255" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +39,6 @@
     <t>Raw data</t>
   </si>
   <si>
-    <t>Encription (ChaCha20, Speck+CFB, AES+CFB)</t>
-  </si>
-  <si>
     <t>EnigmaIoT Protocol</t>
   </si>
   <si>
@@ -64,11 +62,14 @@
   <si>
     <t>Not currently implemented</t>
   </si>
+  <si>
+    <t>Encription (ChaCha20/Poly1305)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -659,18 +660,6 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -686,44 +675,56 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -1014,7 +1015,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="Rohde &amp; Schwarz Coloured PrivotTable">
-    <tableStyle name="Rohde &amp; Schwarz Coloured PrivotTable" table="0" count="10">
+    <tableStyle name="Rohde &amp; Schwarz Coloured PrivotTable" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -1026,7 +1027,7 @@
       <tableStyleElement type="pageFieldLabels" dxfId="7"/>
       <tableStyleElement type="pageFieldValues" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Rohde &amp; Schwarz Coloured Table" pivot="0" count="6">
+    <tableStyle name="Rohde &amp; Schwarz Coloured Table" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="totalRow" dxfId="3"/>
@@ -1301,372 +1302,372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B7:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="23"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="2:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="2:15" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="2:15" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="3:15" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="3:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="13" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="16" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15" t="s">
-        <v>4</v>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="8"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="17"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="5" t="s">
+      <c r="L19" s="14"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="3:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="9"/>
+      <c r="D20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="19" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="3:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+      <c r="D21" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-    </row>
-    <row r="20" spans="3:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="18"/>
-      <c r="D20" s="21" t="s">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-    </row>
-    <row r="21" spans="3:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="17"/>
-      <c r="D21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="K19:L20"/>
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1674,7 +1675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1686,7 +1687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/img/System layers.xlsx
+++ b/img/System layers.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmartin\Documents\Arduino\libraries\EnigmaIOT\img\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\martin_g\Documents\_PRIVATE\Arduino\libraries\EnigmaIOT\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5949BE-90A4-46F0-AB56-C1B04290624C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="1020" windowWidth="30255" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7410" yWindow="1020" windowWidth="30255" windowHeight="16530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ESP-NOW</t>
   </si>
@@ -65,11 +64,14 @@
   <si>
     <t>Encription (ChaCha20/Poly1305)</t>
   </si>
+  <si>
+    <t>MessagePack</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -306,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -601,19 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -632,6 +621,32 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -658,7 +673,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -686,13 +701,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,14 +737,11 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1015,7 +1033,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="Rohde &amp; Schwarz Coloured PrivotTable">
-    <tableStyle name="Rohde &amp; Schwarz Coloured PrivotTable" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Rohde &amp; Schwarz Coloured PrivotTable" table="0" count="10">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -1027,7 +1045,7 @@
       <tableStyleElement type="pageFieldLabels" dxfId="7"/>
       <tableStyleElement type="pageFieldValues" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Rohde &amp; Schwarz Coloured Table" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Rohde &amp; Schwarz Coloured Table" pivot="0" count="6">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="totalRow" dxfId="3"/>
@@ -1302,16 +1320,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B7:O29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:M21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1325,8 +1343,9 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1340,8 +1359,9 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1355,8 +1375,9 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1370,8 +1391,9 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1385,8 +1407,9 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1400,8 +1423,9 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1416,8 +1440,9 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="2:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="2:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1431,49 +1456,53 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="2:15" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L15" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="2:16" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="2:15" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L16" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="2:16" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="3:15" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L17" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="3:16" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="3:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="3:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25" t="s">
+      <c r="G18" s="25"/>
+      <c r="H18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="8"/>
       <c r="D19" s="11"/>
       <c r="E19" s="6"/>
@@ -1483,60 +1512,63 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="13" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="8"/>
+      <c r="M19" s="16"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="3:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="3:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="9"/>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="8"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="3:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="3:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21" t="s">
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="24"/>
+      <c r="K21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="L21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="8"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
       <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1550,8 +1582,9 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1560,15 +1593,16 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="8" t="s">
+      <c r="K23" s="8"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1582,8 +1616,9 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1597,8 +1632,9 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1612,8 +1648,9 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1627,8 +1664,9 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1642,8 +1680,9 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1657,17 +1696,18 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="L21:N21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1675,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1687,7 +1727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
